--- a/ReadXcel.xlsx
+++ b/ReadXcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\261124\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7422BBE4-24E1-46E4-A5CF-AF82B842DFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335EBA9C-0CCD-4AAC-AAB7-F224225D874A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5EB16476-76AA-4E6E-A90F-4FEF6E14627E}"/>
   </bookViews>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>custid</t>
-  </si>
-  <si>
-    <t>custname</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Raju</t>
   </si>
@@ -54,6 +48,24 @@
   </si>
   <si>
     <t>bolu123</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Dolu</t>
+  </si>
+  <si>
+    <t>dolu123</t>
+  </si>
+  <si>
+    <t>Rama</t>
+  </si>
+  <si>
+    <t>rama123</t>
   </si>
 </sst>
 </file>
@@ -405,36 +417,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9776BFA2-A78E-4FC7-B082-46E8B4EA6500}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
